--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2352,28 +2352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4004.036049714626</v>
+        <v>4125.906714996838</v>
       </c>
       <c r="AB2" t="n">
-        <v>5478.498768823359</v>
+        <v>5645.247589616781</v>
       </c>
       <c r="AC2" t="n">
-        <v>4955.638535447963</v>
+        <v>5106.473082818296</v>
       </c>
       <c r="AD2" t="n">
-        <v>4004036.049714626</v>
+        <v>4125906.714996838</v>
       </c>
       <c r="AE2" t="n">
-        <v>5478498.768823358</v>
+        <v>5645247.589616781</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.026561201346765e-07</v>
+        <v>1.485123969203161e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.93229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4955638.535447964</v>
+        <v>5106473.082818296</v>
       </c>
     </row>
     <row r="3">
@@ -2458,28 +2458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1317.835295700319</v>
+        <v>1378.72804742269</v>
       </c>
       <c r="AB3" t="n">
-        <v>1803.120390367193</v>
+        <v>1886.43653967235</v>
       </c>
       <c r="AC3" t="n">
-        <v>1631.03311100591</v>
+        <v>1706.397683956332</v>
       </c>
       <c r="AD3" t="n">
-        <v>1317835.295700319</v>
+        <v>1378728.04742269</v>
       </c>
       <c r="AE3" t="n">
-        <v>1803120.390367193</v>
+        <v>1886436.53967235</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.515739201781041e-06</v>
+        <v>2.804514365688994e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.025</v>
       </c>
       <c r="AH3" t="n">
-        <v>1631033.11100591</v>
+        <v>1706397.683956333</v>
       </c>
     </row>
     <row r="4">
@@ -2564,28 +2564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>972.4394095508945</v>
+        <v>1021.307152860179</v>
       </c>
       <c r="AB4" t="n">
-        <v>1330.534501146483</v>
+        <v>1397.397503434925</v>
       </c>
       <c r="AC4" t="n">
-        <v>1203.550155773963</v>
+        <v>1264.031846966809</v>
       </c>
       <c r="AD4" t="n">
-        <v>972439.4095508945</v>
+        <v>1021307.152860179</v>
       </c>
       <c r="AE4" t="n">
-        <v>1330534.501146483</v>
+        <v>1397397.503434925</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.781978281978385e-06</v>
+        <v>3.297126369286917e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.528125000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>1203550.155773963</v>
+        <v>1264031.846966809</v>
       </c>
     </row>
     <row r="5">
@@ -2670,28 +2670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>812.3917859176537</v>
+        <v>861.1741883723665</v>
       </c>
       <c r="AB5" t="n">
-        <v>1111.550281688655</v>
+        <v>1178.2965168549</v>
       </c>
       <c r="AC5" t="n">
-        <v>1005.465482874908</v>
+        <v>1065.841551035815</v>
       </c>
       <c r="AD5" t="n">
-        <v>812391.7859176537</v>
+        <v>861174.1883723665</v>
       </c>
       <c r="AE5" t="n">
-        <v>1111550.281688655</v>
+        <v>1178296.5168549</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.927425056201262e-06</v>
+        <v>3.566240981663425e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.884374999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>1005465.482874908</v>
+        <v>1065841.551035815</v>
       </c>
     </row>
     <row r="6">
@@ -2776,28 +2776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>768.0019205537034</v>
+        <v>816.7843230084161</v>
       </c>
       <c r="AB6" t="n">
-        <v>1050.814109555051</v>
+        <v>1117.560344721296</v>
       </c>
       <c r="AC6" t="n">
-        <v>950.525885765982</v>
+        <v>1010.90195392689</v>
       </c>
       <c r="AD6" t="n">
-        <v>768001.9205537033</v>
+        <v>816784.3230084161</v>
       </c>
       <c r="AE6" t="n">
-        <v>1050814.109555051</v>
+        <v>1117560.344721296</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.971482153307891e-06</v>
+        <v>3.647758146094424e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.708333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>950525.885765982</v>
+        <v>1010901.95392689</v>
       </c>
     </row>
     <row r="7">
@@ -2882,28 +2882,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>771.0900039833489</v>
+        <v>819.8724064380615</v>
       </c>
       <c r="AB7" t="n">
-        <v>1055.039361540118</v>
+        <v>1121.785596706363</v>
       </c>
       <c r="AC7" t="n">
-        <v>954.3478856317723</v>
+        <v>1014.72395379268</v>
       </c>
       <c r="AD7" t="n">
-        <v>771090.0039833488</v>
+        <v>819872.4064380615</v>
       </c>
       <c r="AE7" t="n">
-        <v>1055039.361540118</v>
+        <v>1121785.596706363</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.971628037735396e-06</v>
+        <v>3.648028070479957e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.707291666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>954347.8856317723</v>
+        <v>1014723.95379268</v>
       </c>
     </row>
   </sheetData>
@@ -3179,28 +3179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2378.797036193324</v>
+        <v>2472.821392400491</v>
       </c>
       <c r="AB2" t="n">
-        <v>3254.775050038475</v>
+        <v>3383.423322262967</v>
       </c>
       <c r="AC2" t="n">
-        <v>2944.143887368153</v>
+        <v>3060.514149050519</v>
       </c>
       <c r="AD2" t="n">
-        <v>2378797.036193324</v>
+        <v>2472821.392400491</v>
       </c>
       <c r="AE2" t="n">
-        <v>3254775.050038475</v>
+        <v>3383423.322262967</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.061538918048676e-06</v>
+        <v>2.023457007648234e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.80833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2944143.887368153</v>
+        <v>3060514.149050519</v>
       </c>
     </row>
     <row r="3">
@@ -3285,28 +3285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1003.349200235243</v>
+        <v>1050.404138274663</v>
       </c>
       <c r="AB3" t="n">
-        <v>1372.826640404532</v>
+        <v>1437.209282547422</v>
       </c>
       <c r="AC3" t="n">
-        <v>1241.805992618614</v>
+        <v>1300.044045756992</v>
       </c>
       <c r="AD3" t="n">
-        <v>1003349.200235243</v>
+        <v>1050404.138274663</v>
       </c>
       <c r="AE3" t="n">
-        <v>1372826.640404532</v>
+        <v>1437209.282547422</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.722397451192712e-06</v>
+        <v>3.28315536370334e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.127083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1241805.992618614</v>
+        <v>1300044.045756992</v>
       </c>
     </row>
     <row r="4">
@@ -3391,28 +3391,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>747.6672874920297</v>
+        <v>806.3151664464727</v>
       </c>
       <c r="AB4" t="n">
-        <v>1022.991367499373</v>
+        <v>1103.235982846654</v>
       </c>
       <c r="AC4" t="n">
-        <v>925.3585071626339</v>
+        <v>997.9446890451958</v>
       </c>
       <c r="AD4" t="n">
-        <v>747667.2874920297</v>
+        <v>806315.1664464728</v>
       </c>
       <c r="AE4" t="n">
-        <v>1022991.367499373</v>
+        <v>1103235.982846654</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.968389551906295e-06</v>
+        <v>3.752054272214375e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.986458333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>925358.5071626339</v>
+        <v>997944.6890451958</v>
       </c>
     </row>
     <row r="5">
@@ -3497,28 +3497,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>715.1358989323926</v>
+        <v>762.1907474632616</v>
       </c>
       <c r="AB5" t="n">
-        <v>978.4804864885044</v>
+        <v>1042.863006161846</v>
       </c>
       <c r="AC5" t="n">
-        <v>885.0956821640286</v>
+        <v>943.3336245211804</v>
       </c>
       <c r="AD5" t="n">
-        <v>715135.8989323926</v>
+        <v>762190.7474632616</v>
       </c>
       <c r="AE5" t="n">
-        <v>978480.4864885045</v>
+        <v>1042863.006161846</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.007174809503468e-06</v>
+        <v>3.825984959016422e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.832291666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>885095.6821640286</v>
+        <v>943333.6245211804</v>
       </c>
     </row>
   </sheetData>
@@ -3794,28 +3794,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>696.5508201710089</v>
+        <v>738.4046796443234</v>
       </c>
       <c r="AB2" t="n">
-        <v>953.0515618113708</v>
+        <v>1010.317858804723</v>
       </c>
       <c r="AC2" t="n">
-        <v>862.0936583683609</v>
+        <v>913.8945403504204</v>
       </c>
       <c r="AD2" t="n">
-        <v>696550.8201710089</v>
+        <v>738404.6796443234</v>
       </c>
       <c r="AE2" t="n">
-        <v>953051.5618113708</v>
+        <v>1010317.858804723</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.90981986947363e-06</v>
+        <v>4.067416516515066e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.185416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>862093.6583683609</v>
+        <v>913894.5403504204</v>
       </c>
     </row>
     <row r="3">
@@ -3900,28 +3900,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>633.825082788493</v>
+        <v>686.0569543898757</v>
       </c>
       <c r="AB3" t="n">
-        <v>867.227440660383</v>
+        <v>938.6933916929401</v>
       </c>
       <c r="AC3" t="n">
-        <v>784.4604708851128</v>
+        <v>849.1058118542148</v>
       </c>
       <c r="AD3" t="n">
-        <v>633825.082788493</v>
+        <v>686056.9543898758</v>
       </c>
       <c r="AE3" t="n">
-        <v>867227.440660383</v>
+        <v>938693.39169294</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.993851270132067e-06</v>
+        <v>4.246381408653415e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.797916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>784460.4708851129</v>
+        <v>849105.8118542149</v>
       </c>
     </row>
   </sheetData>
@@ -4197,28 +4197,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1102.67074826799</v>
+        <v>1168.416183690621</v>
       </c>
       <c r="AB2" t="n">
-        <v>1508.722764180388</v>
+        <v>1598.678569409536</v>
       </c>
       <c r="AC2" t="n">
-        <v>1364.73238107271</v>
+        <v>1446.102930504553</v>
       </c>
       <c r="AD2" t="n">
-        <v>1102670.74826799</v>
+        <v>1168416.183690621</v>
       </c>
       <c r="AE2" t="n">
-        <v>1508722.764180388</v>
+        <v>1598678.569409535</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.562372569616709e-06</v>
+        <v>3.172156477987474e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.74166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1364732.38107271</v>
+        <v>1446102.930504553</v>
       </c>
     </row>
     <row r="3">
@@ -4303,28 +4303,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>656.9961586437465</v>
+        <v>700.7980914825273</v>
       </c>
       <c r="AB3" t="n">
-        <v>898.931128881262</v>
+        <v>958.8628657961764</v>
       </c>
       <c r="AC3" t="n">
-        <v>813.1384035985971</v>
+        <v>867.3503396570729</v>
       </c>
       <c r="AD3" t="n">
-        <v>656996.1586437465</v>
+        <v>700798.0914825273</v>
       </c>
       <c r="AE3" t="n">
-        <v>898931.128881262</v>
+        <v>958862.8657961764</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.027314540735891e-06</v>
+        <v>4.116149424519939e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.277083333333332</v>
       </c>
       <c r="AH3" t="n">
-        <v>813138.403598597</v>
+        <v>867350.3396570729</v>
       </c>
     </row>
     <row r="4">
@@ -4409,28 +4409,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>660.8611516120101</v>
+        <v>704.6630844507908</v>
       </c>
       <c r="AB4" t="n">
-        <v>904.2193827718958</v>
+        <v>964.1511196868103</v>
       </c>
       <c r="AC4" t="n">
-        <v>817.9219539600197</v>
+        <v>872.1338900184958</v>
       </c>
       <c r="AD4" t="n">
-        <v>660861.1516120101</v>
+        <v>704663.0844507909</v>
       </c>
       <c r="AE4" t="n">
-        <v>904219.3827718957</v>
+        <v>964151.1196868103</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.027314540735891e-06</v>
+        <v>4.116149424519939e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.278125000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>817921.9539600196</v>
+        <v>872133.8900184957</v>
       </c>
     </row>
   </sheetData>
@@ -4706,28 +4706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>634.6928685402956</v>
+        <v>684.9253100252632</v>
       </c>
       <c r="AB2" t="n">
-        <v>868.414783410005</v>
+        <v>937.1450259486513</v>
       </c>
       <c r="AC2" t="n">
-        <v>785.5344953091568</v>
+        <v>847.7052199634161</v>
       </c>
       <c r="AD2" t="n">
-        <v>634692.8685402956</v>
+        <v>684925.3100252632</v>
       </c>
       <c r="AE2" t="n">
-        <v>868414.783410005</v>
+        <v>937145.0259486514</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.91722260979111e-06</v>
+        <v>4.269280272336967e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.502083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>785534.4953091568</v>
+        <v>847705.2199634161</v>
       </c>
     </row>
   </sheetData>
@@ -5003,28 +5003,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2697.298206417524</v>
+        <v>2792.316049038259</v>
       </c>
       <c r="AB2" t="n">
-        <v>3690.56240241919</v>
+        <v>3820.570006584255</v>
       </c>
       <c r="AC2" t="n">
-        <v>3338.340306469027</v>
+        <v>3455.940167359392</v>
       </c>
       <c r="AD2" t="n">
-        <v>2697298.206417524</v>
+        <v>2792316.049038259</v>
       </c>
       <c r="AE2" t="n">
-        <v>3690562.40241919</v>
+        <v>3820570.006584255</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.932262134687533e-07</v>
+        <v>1.87795603915054e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.684375</v>
       </c>
       <c r="AH2" t="n">
-        <v>3338340.306469027</v>
+        <v>3455940.167359392</v>
       </c>
     </row>
     <row r="3">
@@ -5109,28 +5109,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1076.144715584599</v>
+        <v>1135.360275021965</v>
       </c>
       <c r="AB3" t="n">
-        <v>1472.428676017</v>
+        <v>1553.450016845314</v>
       </c>
       <c r="AC3" t="n">
-        <v>1331.902149744564</v>
+        <v>1405.190927518389</v>
       </c>
       <c r="AD3" t="n">
-        <v>1076144.715584598</v>
+        <v>1135360.275021965</v>
       </c>
       <c r="AE3" t="n">
-        <v>1472428.676017001</v>
+        <v>1553450.016845314</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.666843268951853e-06</v>
+        <v>3.151606694222673e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.346875000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>1331902.149744564</v>
+        <v>1405190.927518389</v>
       </c>
     </row>
     <row r="4">
@@ -5215,28 +5215,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>810.1731936734326</v>
+        <v>857.5968636377794</v>
       </c>
       <c r="AB4" t="n">
-        <v>1108.51470590273</v>
+        <v>1173.401863332608</v>
       </c>
       <c r="AC4" t="n">
-        <v>1002.719618181534</v>
+        <v>1061.414036376003</v>
       </c>
       <c r="AD4" t="n">
-        <v>810173.1936734326</v>
+        <v>857596.8636377794</v>
       </c>
       <c r="AE4" t="n">
-        <v>1108514.70590273</v>
+        <v>1173401.863332608</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.920347023180062e-06</v>
+        <v>3.630922382576862e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.112499999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>1002719.618181534</v>
+        <v>1061414.036376002</v>
       </c>
     </row>
     <row r="5">
@@ -5321,28 +5321,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>727.8620929633811</v>
+        <v>775.3710142737485</v>
       </c>
       <c r="AB5" t="n">
-        <v>995.8930266017591</v>
+        <v>1060.896828684288</v>
       </c>
       <c r="AC5" t="n">
-        <v>900.8463938875278</v>
+        <v>959.6463243327091</v>
       </c>
       <c r="AD5" t="n">
-        <v>727862.0929633811</v>
+        <v>775371.0142737485</v>
       </c>
       <c r="AE5" t="n">
-        <v>995893.026601759</v>
+        <v>1060896.828684288</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.997370287739075e-06</v>
+        <v>3.776555172843768e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AH5" t="n">
-        <v>900846.3938875279</v>
+        <v>959646.3243327091</v>
       </c>
     </row>
     <row r="6">
@@ -5427,28 +5427,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>731.0846398953554</v>
+        <v>778.5935612057229</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000.302257482823</v>
+        <v>1065.306059565352</v>
       </c>
       <c r="AC6" t="n">
-        <v>904.8348139616977</v>
+        <v>963.6347444068788</v>
       </c>
       <c r="AD6" t="n">
-        <v>731084.6398953554</v>
+        <v>778593.561205723</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000302.257482823</v>
+        <v>1065306.059565352</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.997519847476083e-06</v>
+        <v>3.776837954960791e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.798958333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>904834.8139616977</v>
+        <v>963634.7444068788</v>
       </c>
     </row>
   </sheetData>
@@ -5724,28 +5724,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>651.5067245231719</v>
+        <v>700.4194181011452</v>
       </c>
       <c r="AB2" t="n">
-        <v>891.4202429407503</v>
+        <v>958.3447481698787</v>
       </c>
       <c r="AC2" t="n">
-        <v>806.344346070653</v>
+        <v>866.8816704498465</v>
       </c>
       <c r="AD2" t="n">
-        <v>651506.7245231719</v>
+        <v>700419.4181011452</v>
       </c>
       <c r="AE2" t="n">
-        <v>891420.2429407503</v>
+        <v>958344.7481698787</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.840339874455208e-06</v>
+        <v>4.219102001533726e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.13125</v>
       </c>
       <c r="AH2" t="n">
-        <v>806344.3460706531</v>
+        <v>866881.6704498465</v>
       </c>
     </row>
   </sheetData>
@@ -6021,28 +6021,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1642.235030252778</v>
+        <v>1721.916724064806</v>
       </c>
       <c r="AB2" t="n">
-        <v>2246.978418688101</v>
+        <v>2356.00242746995</v>
       </c>
       <c r="AC2" t="n">
-        <v>2032.529952062526</v>
+        <v>2131.148862462392</v>
       </c>
       <c r="AD2" t="n">
-        <v>1642235.030252778</v>
+        <v>1721916.724064806</v>
       </c>
       <c r="AE2" t="n">
-        <v>2246978.418688101</v>
+        <v>2356002.42746995</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.287454100650699e-06</v>
+        <v>2.523392244744437e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.58020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2032529.952062526</v>
+        <v>2131148.862462392</v>
       </c>
     </row>
     <row r="3">
@@ -6127,28 +6127,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>782.8535589821358</v>
+        <v>828.3494703027433</v>
       </c>
       <c r="AB3" t="n">
-        <v>1071.134776460878</v>
+        <v>1133.384289467684</v>
       </c>
       <c r="AC3" t="n">
-        <v>968.9071767425517</v>
+        <v>1025.215683595728</v>
       </c>
       <c r="AD3" t="n">
-        <v>782853.5589821358</v>
+        <v>828349.4703027433</v>
       </c>
       <c r="AE3" t="n">
-        <v>1071134.776460878</v>
+        <v>1133384.289467684</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.908324176000728e-06</v>
+        <v>3.740289012046918e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.487500000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>968907.1767425516</v>
+        <v>1025215.683595728</v>
       </c>
     </row>
     <row r="4">
@@ -6233,28 +6233,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>691.5524501190523</v>
+        <v>737.0483614396597</v>
       </c>
       <c r="AB4" t="n">
-        <v>946.2125713937602</v>
+        <v>1008.462084400566</v>
       </c>
       <c r="AC4" t="n">
-        <v>855.9073715976238</v>
+        <v>912.2158784508002</v>
       </c>
       <c r="AD4" t="n">
-        <v>691552.4501190523</v>
+        <v>737048.3614396597</v>
       </c>
       <c r="AE4" t="n">
-        <v>946212.5713937602</v>
+        <v>1008462.084400566</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.023075519754377e-06</v>
+        <v>3.965200059948053e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.00625</v>
       </c>
       <c r="AH4" t="n">
-        <v>855907.3715976238</v>
+        <v>912215.8784508002</v>
       </c>
     </row>
   </sheetData>
@@ -6530,28 +6530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2094.962421779083</v>
+        <v>2187.958758197976</v>
       </c>
       <c r="AB2" t="n">
-        <v>2866.420008697286</v>
+        <v>2993.661698894424</v>
       </c>
       <c r="AC2" t="n">
-        <v>2592.852906112967</v>
+        <v>2707.950827982524</v>
       </c>
       <c r="AD2" t="n">
-        <v>2094962.421779083</v>
+        <v>2187958.758197976</v>
       </c>
       <c r="AE2" t="n">
-        <v>2866420.008697286</v>
+        <v>2993661.698894424</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.13423722609386e-06</v>
+        <v>2.180801409465341e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.99166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2592852.906112967</v>
+        <v>2707950.827982523</v>
       </c>
     </row>
     <row r="3">
@@ -6636,28 +6636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>920.3394419649971</v>
+        <v>978.4834874404484</v>
       </c>
       <c r="AB3" t="n">
-        <v>1259.249027007108</v>
+        <v>1338.804275160868</v>
       </c>
       <c r="AC3" t="n">
-        <v>1139.068067236658</v>
+        <v>1211.030674163116</v>
       </c>
       <c r="AD3" t="n">
-        <v>920339.4419649971</v>
+        <v>978483.4874404484</v>
       </c>
       <c r="AE3" t="n">
-        <v>1259249.027007108</v>
+        <v>1338804.275160868</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.781719860197138e-06</v>
+        <v>3.425718265103715e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.90625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1139068.067236658</v>
+        <v>1211030.674163116</v>
       </c>
     </row>
     <row r="4">
@@ -6742,28 +6742,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>709.5957870214684</v>
+        <v>767.6544916423481</v>
       </c>
       <c r="AB4" t="n">
-        <v>970.9002609594901</v>
+        <v>1050.338741991053</v>
       </c>
       <c r="AC4" t="n">
-        <v>878.2389027205903</v>
+        <v>950.0958866151094</v>
       </c>
       <c r="AD4" t="n">
-        <v>709595.7870214684</v>
+        <v>767654.4916423481</v>
       </c>
       <c r="AE4" t="n">
-        <v>970900.2609594901</v>
+        <v>1050338.741991053</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.003387444343083e-06</v>
+        <v>3.851919212151676e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.920833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>878238.9027205904</v>
+        <v>950095.8866151094</v>
       </c>
     </row>
     <row r="5">
@@ -6848,28 +6848,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>704.5794929923936</v>
+        <v>751.163002056412</v>
       </c>
       <c r="AB5" t="n">
-        <v>964.0367461656361</v>
+        <v>1027.774358386403</v>
       </c>
       <c r="AC5" t="n">
-        <v>872.0304321456583</v>
+        <v>929.6850161123757</v>
       </c>
       <c r="AD5" t="n">
-        <v>704579.4929923937</v>
+        <v>751163.0020564119</v>
       </c>
       <c r="AE5" t="n">
-        <v>964036.7461656361</v>
+        <v>1027774.358386403</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.01298542221332e-06</v>
+        <v>3.870373273776433e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.883333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>872030.4321456583</v>
+        <v>929685.0161123757</v>
       </c>
     </row>
   </sheetData>
@@ -7145,28 +7145,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3490.754575673373</v>
+        <v>3599.5902746277</v>
       </c>
       <c r="AB2" t="n">
-        <v>4776.2044116596</v>
+        <v>4925.118216461084</v>
       </c>
       <c r="AC2" t="n">
-        <v>4320.370166055622</v>
+        <v>4455.071846328683</v>
       </c>
       <c r="AD2" t="n">
-        <v>3490754.575673373</v>
+        <v>3599590.2746277</v>
       </c>
       <c r="AE2" t="n">
-        <v>4776204.4116596</v>
+        <v>4925118.216461084</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.646577211689559e-07</v>
+        <v>1.610791753341426e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.71458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4320370.166055622</v>
+        <v>4455071.846328683</v>
       </c>
     </row>
     <row r="3">
@@ -7251,28 +7251,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1227.125493732109</v>
+        <v>1287.589770928957</v>
       </c>
       <c r="AB3" t="n">
-        <v>1679.007237480262</v>
+        <v>1761.737129036636</v>
       </c>
       <c r="AC3" t="n">
-        <v>1518.765143236602</v>
+        <v>1593.599410054969</v>
       </c>
       <c r="AD3" t="n">
-        <v>1227125.493732109</v>
+        <v>1287589.770928957</v>
       </c>
       <c r="AE3" t="n">
-        <v>1679007.237480262</v>
+        <v>1761737.129036636</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.563589379113862e-06</v>
+        <v>2.912848420625746e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1518765.143236602</v>
+        <v>1593599.410054969</v>
       </c>
     </row>
     <row r="4">
@@ -7357,28 +7357,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>919.5672805705257</v>
+        <v>967.8534509819832</v>
       </c>
       <c r="AB4" t="n">
-        <v>1258.192521721835</v>
+        <v>1324.259790314286</v>
       </c>
       <c r="AC4" t="n">
-        <v>1138.112393332997</v>
+        <v>1197.874294536978</v>
       </c>
       <c r="AD4" t="n">
-        <v>919567.2805705257</v>
+        <v>967853.4509819832</v>
       </c>
       <c r="AE4" t="n">
-        <v>1258192.521721835</v>
+        <v>1324259.790314286</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.824604252425919e-06</v>
+        <v>3.399099332561295e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.395833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1138112.393332998</v>
+        <v>1197874.294536978</v>
       </c>
     </row>
     <row r="5">
@@ -7463,28 +7463,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>769.9610492294642</v>
+        <v>818.3324709869423</v>
       </c>
       <c r="AB5" t="n">
-        <v>1053.494675839884</v>
+        <v>1119.678589084984</v>
       </c>
       <c r="AC5" t="n">
-        <v>952.9506225667892</v>
+        <v>1012.818036021482</v>
       </c>
       <c r="AD5" t="n">
-        <v>769961.0492294641</v>
+        <v>818332.4709869423</v>
       </c>
       <c r="AE5" t="n">
-        <v>1053494.675839884</v>
+        <v>1119678.589084984</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.963272999205226e-06</v>
+        <v>3.657428690282548e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.802083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>952950.6225667892</v>
+        <v>1012818.036021482</v>
       </c>
     </row>
     <row r="6">
@@ -7569,28 +7569,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>754.5525342023641</v>
+        <v>802.9239559598423</v>
       </c>
       <c r="AB6" t="n">
-        <v>1032.412065804099</v>
+        <v>1098.595979049199</v>
       </c>
       <c r="AC6" t="n">
-        <v>933.8801072431902</v>
+        <v>993.7475206978834</v>
       </c>
       <c r="AD6" t="n">
-        <v>754552.534202364</v>
+        <v>802923.9559598423</v>
       </c>
       <c r="AE6" t="n">
-        <v>1032412.065804099</v>
+        <v>1098595.979049199</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.98091907514745e-06</v>
+        <v>3.690301991371148e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.732291666666668</v>
       </c>
       <c r="AH6" t="n">
-        <v>933880.1072431902</v>
+        <v>993747.5206978833</v>
       </c>
     </row>
   </sheetData>
@@ -7866,28 +7866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1270.5700211946</v>
+        <v>1337.122329928662</v>
       </c>
       <c r="AB2" t="n">
-        <v>1738.449956591723</v>
+        <v>1829.50976148231</v>
       </c>
       <c r="AC2" t="n">
-        <v>1572.534732664447</v>
+        <v>1654.903917579515</v>
       </c>
       <c r="AD2" t="n">
-        <v>1270570.0211946</v>
+        <v>1337122.329928662</v>
       </c>
       <c r="AE2" t="n">
-        <v>1738449.956591723</v>
+        <v>1829509.76148231</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.463593875705804e-06</v>
+        <v>2.93377005259432e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.32291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1572534.732664447</v>
+        <v>1654903.917579515</v>
       </c>
     </row>
     <row r="3">
@@ -7972,28 +7972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>674.7332473404731</v>
+        <v>719.1299299508887</v>
       </c>
       <c r="AB3" t="n">
-        <v>923.1997961412501</v>
+        <v>983.9452959322232</v>
       </c>
       <c r="AC3" t="n">
-        <v>835.0909033165802</v>
+        <v>890.0389378643475</v>
       </c>
       <c r="AD3" t="n">
-        <v>674733.2473404731</v>
+        <v>719129.9299508887</v>
       </c>
       <c r="AE3" t="n">
-        <v>923199.7961412501</v>
+        <v>983945.2959322232</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.017850512983959e-06</v>
+        <v>4.044776015989821e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.2125</v>
       </c>
       <c r="AH3" t="n">
-        <v>835090.9033165802</v>
+        <v>890038.9378643475</v>
       </c>
     </row>
     <row r="4">
@@ -8078,28 +8078,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>670.2834669092824</v>
+        <v>714.680149519698</v>
       </c>
       <c r="AB4" t="n">
-        <v>917.1114102448372</v>
+        <v>977.8569100358104</v>
       </c>
       <c r="AC4" t="n">
-        <v>829.5835844250176</v>
+        <v>884.5316189727849</v>
       </c>
       <c r="AD4" t="n">
-        <v>670283.4669092824</v>
+        <v>714680.149519698</v>
       </c>
       <c r="AE4" t="n">
-        <v>917111.4102448372</v>
+        <v>977856.9100358104</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.02835020817924e-06</v>
+        <v>4.065822627236693e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.169791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>829583.5844250177</v>
+        <v>884531.618972785</v>
       </c>
     </row>
   </sheetData>
@@ -8375,28 +8375,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>813.0830008396407</v>
+        <v>866.3092458740008</v>
       </c>
       <c r="AB2" t="n">
-        <v>1112.496032439168</v>
+        <v>1185.322529071384</v>
       </c>
       <c r="AC2" t="n">
-        <v>1006.320972501161</v>
+        <v>1072.197010507429</v>
       </c>
       <c r="AD2" t="n">
-        <v>813083.0008396407</v>
+        <v>866309.2458740008</v>
       </c>
       <c r="AE2" t="n">
-        <v>1112496.032439168</v>
+        <v>1185322.529071384</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.79005537400615e-06</v>
+        <v>3.744907788755158e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.642708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1006320.972501161</v>
+        <v>1072197.010507429</v>
       </c>
     </row>
     <row r="3">
@@ -8481,28 +8481,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>640.1511135692692</v>
+        <v>682.8174504513291</v>
       </c>
       <c r="AB3" t="n">
-        <v>875.8829950594225</v>
+        <v>934.2609594873935</v>
       </c>
       <c r="AC3" t="n">
-        <v>792.2899513204547</v>
+        <v>845.0964047574079</v>
       </c>
       <c r="AD3" t="n">
-        <v>640151.1135692692</v>
+        <v>682817.4504513291</v>
       </c>
       <c r="AE3" t="n">
-        <v>875882.9950594225</v>
+        <v>934260.9594873935</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.012279430342222e-06</v>
+        <v>4.209814412039796e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>792289.9513204547</v>
+        <v>845096.4047574078</v>
       </c>
     </row>
   </sheetData>
@@ -14671,28 +14671,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>638.5830477997766</v>
+        <v>679.6446781199038</v>
       </c>
       <c r="AB2" t="n">
-        <v>873.7374982954234</v>
+        <v>929.9198324107009</v>
       </c>
       <c r="AC2" t="n">
-        <v>790.3492177563884</v>
+        <v>841.1695887561046</v>
       </c>
       <c r="AD2" t="n">
-        <v>638583.0477997767</v>
+        <v>679644.6781199038</v>
       </c>
       <c r="AE2" t="n">
-        <v>873737.4982954233</v>
+        <v>929919.8324107009</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.958698896360186e-06</v>
+        <v>4.257928897264783e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.116666666666665</v>
       </c>
       <c r="AH2" t="n">
-        <v>790349.2177563884</v>
+        <v>841169.5887561047</v>
       </c>
     </row>
     <row r="3">
@@ -14777,28 +14777,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>640.5922594906015</v>
+        <v>681.6538898107284</v>
       </c>
       <c r="AB3" t="n">
-        <v>876.4865903709735</v>
+        <v>932.6689244862511</v>
       </c>
       <c r="AC3" t="n">
-        <v>792.8359403426231</v>
+        <v>843.6563113423394</v>
       </c>
       <c r="AD3" t="n">
-        <v>640592.2594906015</v>
+        <v>681653.8898107284</v>
       </c>
       <c r="AE3" t="n">
-        <v>876486.5903709736</v>
+        <v>932668.9244862511</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.964184487528007e-06</v>
+        <v>4.269853781276026e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.091666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>792835.940342623</v>
+        <v>843656.3113423395</v>
       </c>
     </row>
   </sheetData>
@@ -15074,28 +15074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>681.4261845465948</v>
+        <v>728.9881607603487</v>
       </c>
       <c r="AB2" t="n">
-        <v>932.3573680982159</v>
+        <v>997.433762240175</v>
       </c>
       <c r="AC2" t="n">
-        <v>843.3744894587063</v>
+        <v>902.2400838790494</v>
       </c>
       <c r="AD2" t="n">
-        <v>681426.1845465947</v>
+        <v>728988.1607603487</v>
       </c>
       <c r="AE2" t="n">
-        <v>932357.3680982159</v>
+        <v>997433.762240175</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.709460587724136e-06</v>
+        <v>4.065998100981846e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.21145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>843374.4894587063</v>
+        <v>902240.0838790494</v>
       </c>
     </row>
   </sheetData>
@@ -15371,28 +15371,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1865.941137149114</v>
+        <v>1946.433339056596</v>
       </c>
       <c r="AB2" t="n">
-        <v>2553.062983360569</v>
+        <v>2663.195965075712</v>
       </c>
       <c r="AC2" t="n">
-        <v>2309.402235475038</v>
+        <v>2409.0242799879</v>
       </c>
       <c r="AD2" t="n">
-        <v>1865941.137149114</v>
+        <v>1946433.339056596</v>
       </c>
       <c r="AE2" t="n">
-        <v>2553062.983360569</v>
+        <v>2663195.965075712</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.207261939870464e-06</v>
+        <v>2.342786196151983e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.27708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2309402.235475038</v>
+        <v>2409024.2799879</v>
       </c>
     </row>
     <row r="3">
@@ -15477,28 +15477,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>852.2167465963636</v>
+        <v>909.7476872475597</v>
       </c>
       <c r="AB3" t="n">
-        <v>1166.040549842531</v>
+        <v>1244.75692092747</v>
       </c>
       <c r="AC3" t="n">
-        <v>1054.75527631375</v>
+        <v>1125.959067421463</v>
       </c>
       <c r="AD3" t="n">
-        <v>852216.7465963636</v>
+        <v>909747.6872475598</v>
       </c>
       <c r="AE3" t="n">
-        <v>1166040.549842531</v>
+        <v>1244756.920927471</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.842282335721268e-06</v>
+        <v>3.575092929712936e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>1054755.27631375</v>
+        <v>1125959.067421463</v>
       </c>
     </row>
     <row r="4">
@@ -15583,28 +15583,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>689.7717893586789</v>
+        <v>747.2173891553036</v>
       </c>
       <c r="AB4" t="n">
-        <v>943.776192784209</v>
+        <v>1022.37579674695</v>
       </c>
       <c r="AC4" t="n">
-        <v>853.7035175430892</v>
+        <v>924.8016856188636</v>
       </c>
       <c r="AD4" t="n">
-        <v>689771.789358679</v>
+        <v>747217.3891553036</v>
       </c>
       <c r="AE4" t="n">
-        <v>943776.192784209</v>
+        <v>1022375.79674695</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.0196941400382e-06</v>
+        <v>3.919374408703917e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.936458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>853703.5175430892</v>
+        <v>924801.6856188637</v>
       </c>
     </row>
     <row r="5">
@@ -15689,28 +15689,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>693.3804140247469</v>
+        <v>750.8260138213715</v>
       </c>
       <c r="AB5" t="n">
-        <v>948.7136722536075</v>
+        <v>1027.313276216349</v>
       </c>
       <c r="AC5" t="n">
-        <v>858.1697709017242</v>
+        <v>929.2679389774986</v>
       </c>
       <c r="AD5" t="n">
-        <v>693380.4140247469</v>
+        <v>750826.0138213715</v>
       </c>
       <c r="AE5" t="n">
-        <v>948713.6722536074</v>
+        <v>1027313.276216349</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.0196941400382e-06</v>
+        <v>3.919374408703917e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.935416666666668</v>
       </c>
       <c r="AH5" t="n">
-        <v>858169.7709017242</v>
+        <v>929267.9389774986</v>
       </c>
     </row>
   </sheetData>
@@ -15986,28 +15986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3069.575923631576</v>
+        <v>3177.372059114125</v>
       </c>
       <c r="AB2" t="n">
-        <v>4199.92919884524</v>
+        <v>4347.420627042333</v>
       </c>
       <c r="AC2" t="n">
-        <v>3799.093850744944</v>
+        <v>3932.50890404042</v>
       </c>
       <c r="AD2" t="n">
-        <v>3069575.923631576</v>
+        <v>3177372.059114125</v>
       </c>
       <c r="AE2" t="n">
-        <v>4199929.198845239</v>
+        <v>4347420.627042333</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.268593545489943e-07</v>
+        <v>1.739151690478109e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.66354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3799093.850744944</v>
+        <v>3932508.90404042</v>
       </c>
     </row>
     <row r="3">
@@ -16092,28 +16092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1149.203858276638</v>
+        <v>1209.13801179726</v>
       </c>
       <c r="AB3" t="n">
-        <v>1572.391418190146</v>
+        <v>1654.395971145303</v>
       </c>
       <c r="AC3" t="n">
-        <v>1422.324588103294</v>
+        <v>1496.502741618524</v>
       </c>
       <c r="AD3" t="n">
-        <v>1149203.858276638</v>
+        <v>1209138.01179726</v>
       </c>
       <c r="AE3" t="n">
-        <v>1572391.418190146</v>
+        <v>1654395.971145303</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.615442756008845e-06</v>
+        <v>3.031204234163973e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.560416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1422324.588103294</v>
+        <v>1496502.741618524</v>
       </c>
     </row>
     <row r="4">
@@ -16198,28 +16198,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>865.0644854577489</v>
+        <v>912.926556928226</v>
       </c>
       <c r="AB4" t="n">
-        <v>1183.619392954914</v>
+        <v>1249.106390666391</v>
       </c>
       <c r="AC4" t="n">
-        <v>1070.656419311548</v>
+        <v>1129.89342987302</v>
       </c>
       <c r="AD4" t="n">
-        <v>865064.4854577489</v>
+        <v>912926.556928226</v>
       </c>
       <c r="AE4" t="n">
-        <v>1183619.392954914</v>
+        <v>1249106.390666391</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.871363288075965e-06</v>
+        <v>3.51141153183878e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.253125000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>1070656.419311548</v>
+        <v>1129893.42987302</v>
       </c>
     </row>
     <row r="5">
@@ -16304,28 +16304,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>741.9052893871499</v>
+        <v>789.8526122036477</v>
       </c>
       <c r="AB5" t="n">
-        <v>1015.10754749086</v>
+        <v>1080.711189854986</v>
       </c>
       <c r="AC5" t="n">
-        <v>918.227107870723</v>
+        <v>977.5696306829069</v>
       </c>
       <c r="AD5" t="n">
-        <v>741905.2893871499</v>
+        <v>789852.6122036477</v>
       </c>
       <c r="AE5" t="n">
-        <v>1015107.54749086</v>
+        <v>1080711.189854986</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.987165104729743e-06</v>
+        <v>3.728701160740301e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.772916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>918227.107870723</v>
+        <v>977569.630682907</v>
       </c>
     </row>
     <row r="6">
@@ -16410,28 +16410,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>741.5275577770167</v>
+        <v>789.4748805935144</v>
       </c>
       <c r="AB6" t="n">
-        <v>1014.590718437534</v>
+        <v>1080.194360801659</v>
       </c>
       <c r="AC6" t="n">
-        <v>917.7596042568716</v>
+        <v>977.1021270690553</v>
       </c>
       <c r="AD6" t="n">
-        <v>741527.5577770167</v>
+        <v>789474.8805935144</v>
       </c>
       <c r="AE6" t="n">
-        <v>1014590.718437534</v>
+        <v>1080194.360801659</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.991761591690392e-06</v>
+        <v>3.737325973155086e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.754166666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>917759.6042568716</v>
+        <v>977102.1270690553</v>
       </c>
     </row>
   </sheetData>
@@ -16707,28 +16707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>753.6314727221047</v>
+        <v>817.7528234647384</v>
       </c>
       <c r="AB2" t="n">
-        <v>1031.151828852444</v>
+        <v>1118.885489772861</v>
       </c>
       <c r="AC2" t="n">
-        <v>932.7401455374471</v>
+        <v>1012.100628994586</v>
       </c>
       <c r="AD2" t="n">
-        <v>753631.4727221048</v>
+        <v>817752.8234647384</v>
       </c>
       <c r="AE2" t="n">
-        <v>1031151.828852444</v>
+        <v>1118885.489772861</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.467790055435947e-06</v>
+        <v>3.670831538745412e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.52083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>932740.1455374471</v>
+        <v>1012100.628994586</v>
       </c>
     </row>
   </sheetData>
@@ -17004,28 +17004,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>960.4254578674685</v>
+        <v>1014.409941393163</v>
       </c>
       <c r="AB2" t="n">
-        <v>1314.096482435079</v>
+        <v>1387.960434422259</v>
       </c>
       <c r="AC2" t="n">
-        <v>1188.680958497471</v>
+        <v>1255.495438575703</v>
       </c>
       <c r="AD2" t="n">
-        <v>960425.4578674685</v>
+        <v>1014409.941393163</v>
       </c>
       <c r="AE2" t="n">
-        <v>1314096.482435079</v>
+        <v>1387960.434422259</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.66859679094358e-06</v>
+        <v>3.436113769860838e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.19479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1188680.95849747</v>
+        <v>1255495.438575702</v>
       </c>
     </row>
     <row r="3">
@@ -17110,28 +17110,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>647.258822100017</v>
+        <v>690.4293586513679</v>
       </c>
       <c r="AB3" t="n">
-        <v>885.6080754411614</v>
+        <v>944.675908100376</v>
       </c>
       <c r="AC3" t="n">
-        <v>801.0868836797965</v>
+        <v>854.5173652922397</v>
       </c>
       <c r="AD3" t="n">
-        <v>647258.822100017</v>
+        <v>690429.3586513679</v>
       </c>
       <c r="AE3" t="n">
-        <v>885608.0754411614</v>
+        <v>944675.908100376</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.022957236857414e-06</v>
+        <v>4.16584237434293e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.409375000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>801086.8836797965</v>
+        <v>854517.3652922397</v>
       </c>
     </row>
   </sheetData>
@@ -17407,28 +17407,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1442.674888770166</v>
+        <v>1521.333358362437</v>
       </c>
       <c r="AB2" t="n">
-        <v>1973.931429139501</v>
+        <v>2081.555417402414</v>
       </c>
       <c r="AC2" t="n">
-        <v>1785.542183972587</v>
+        <v>1882.894689846904</v>
       </c>
       <c r="AD2" t="n">
-        <v>1442674.888770166</v>
+        <v>1521333.358362437</v>
       </c>
       <c r="AE2" t="n">
-        <v>1973931.429139501</v>
+        <v>2081555.417402414</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.371924858968475e-06</v>
+        <v>2.718035733148239e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.93854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1785542.183972587</v>
+        <v>1882894.689846904</v>
       </c>
     </row>
     <row r="3">
@@ -17513,28 +17513,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>716.7801600036396</v>
+        <v>761.7401379727132</v>
       </c>
       <c r="AB3" t="n">
-        <v>980.7302370258635</v>
+        <v>1042.24646237739</v>
       </c>
       <c r="AC3" t="n">
-        <v>887.130719667647</v>
+        <v>942.7759228101885</v>
       </c>
       <c r="AD3" t="n">
-        <v>716780.1600036396</v>
+        <v>761740.1379727132</v>
       </c>
       <c r="AE3" t="n">
-        <v>980730.2370258635</v>
+        <v>1042246.46237739</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.976445954858205e-06</v>
+        <v>3.915703323562515e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.286458333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>887130.719667647</v>
+        <v>942775.9228101885</v>
       </c>
     </row>
     <row r="4">
@@ -17619,28 +17619,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>679.5969751731225</v>
+        <v>724.5569531421961</v>
       </c>
       <c r="AB4" t="n">
-        <v>929.8545631344092</v>
+        <v>991.3707884859358</v>
       </c>
       <c r="AC4" t="n">
-        <v>841.1105486879364</v>
+        <v>896.7557518304777</v>
       </c>
       <c r="AD4" t="n">
-        <v>679596.9751731225</v>
+        <v>724556.9531421961</v>
       </c>
       <c r="AE4" t="n">
-        <v>929854.5631344093</v>
+        <v>991370.7884859358</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.028172207276338e-06</v>
+        <v>4.018182553015389e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.074999999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>841110.5486879364</v>
+        <v>896755.7518304777</v>
       </c>
     </row>
   </sheetData>
